--- a/tablo2 örneği.xlsx
+++ b/tablo2 örneği.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahin\Documents\GitHub\Ders-Programi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB5E9FA1-97D7-43AE-BC86-2A8195BB062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5861D-00E7-4D0C-BEAB-60298FAFD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABAE8BF2-60AA-4242-BB6A-1C739D59ED51}"/>
+    <workbookView xWindow="11310" yWindow="525" windowWidth="13230" windowHeight="13185" xr2:uid="{ABAE8BF2-60AA-4242-BB6A-1C739D59ED51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Değerlendirmeler</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Fin</t>
-  </si>
-  <si>
-    <t>TOPLAM</t>
   </si>
 </sst>
 </file>
@@ -435,20 +432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA2A0AD-4B43-4395-8D9D-8143AEC403A3}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -468,7 +465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -487,11 +484,8 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -510,11 +504,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -533,11 +524,8 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -556,11 +544,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -579,11 +564,8 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -601,9 +583,6 @@
       </c>
       <c r="F8">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
